--- a/JuMarcia-covid/covid/R/dados_final/import_variavel.xlsx
+++ b/JuMarcia-covid/covid/R/dados_final/import_variavel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliana\Google Drive\monitora_super_ju\covid\R\dados_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliana\Desktop\COVID-19\JuMarcia-covid\covid\R\dados_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F044E07-7E66-40CE-9E73-F0FE3AD7B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E67AC4-3B3E-4944-8AAB-DFF26301E601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="GERAL" sheetId="1" r:id="rId1"/>
     <sheet name="IMPORTANCE" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMPORTANCE!$A$1:$J$35</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -610,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +658,10 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,9 +1839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA0047-152F-4929-8AF3-C81931A4E536}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,499 +1887,499 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="15">
-        <v>9.0183515157279195E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>29</v>
-      </c>
       <c r="F2" s="18">
-        <v>1.5434729575678301E-3</v>
+        <v>1.42740202704085E-3</v>
       </c>
       <c r="G2" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="19">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+        <v>158</v>
+      </c>
+      <c r="B3" s="14">
+        <v>51</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="15">
+        <v>66.352206113982206</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1.22831342698071E-2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="F3" s="18">
+        <v>49.225253080974397</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19">
         <v>33</v>
-      </c>
-      <c r="F3" s="18">
-        <v>8.4075454851656201E-4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>21</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
+        <v>157</v>
+      </c>
+      <c r="B4" s="14">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="15">
+        <v>64.078867655758998</v>
+      </c>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.28634087459677898</v>
-      </c>
-      <c r="E4" s="4">
-        <v>25</v>
-      </c>
       <c r="F4" s="18">
-        <v>9.50760503084074E-4</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9">
+        <v>33</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="21">
+        <v>17.397774194419</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18">
+        <v>8.0841024708269305E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="21">
+        <v>14.4077141104719</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.54547889221101098</v>
+      </c>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="H6" s="19">
         <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="15">
-        <v>14.4077141104719</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.54547889221101098</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.70424253260654801</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>34</v>
-      </c>
-      <c r="H6" s="19">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="15">
+        <v>9.9883540004775302</v>
+      </c>
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.68221001975771101</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16</v>
-      </c>
       <c r="F7" s="18">
-        <v>1.5998718681308101E-4</v>
+        <v>7.4767771761079294E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H7" s="19">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4.05086427209626</v>
+      </c>
+      <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>34</v>
-      </c>
       <c r="F8" s="18">
-        <v>0</v>
+        <v>3.3642631498591201E-3</v>
       </c>
       <c r="G8" s="3">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H8" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2.5933459756844801</v>
+      </c>
+      <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.87376197424685398</v>
-      </c>
-      <c r="E9" s="4">
-        <v>13</v>
-      </c>
       <c r="F9" s="18">
-        <v>5.1748069327915302E-5</v>
+        <v>1.2951631081323E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H9" s="19">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2.0489160408349001</v>
+      </c>
+      <c r="E10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="15">
-        <v>4.05086427209626</v>
-      </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
       <c r="F10" s="18">
-        <v>3.3642631498591201E-3</v>
+        <v>6.1035773987045596E-3</v>
       </c>
       <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="19">
         <v>11</v>
-      </c>
-      <c r="H10" s="19">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.60108006191594</v>
+      </c>
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.388472642633238</v>
-      </c>
-      <c r="E11" s="4">
-        <v>23</v>
-      </c>
       <c r="F11" s="18">
-        <v>6.62814586340871E-5</v>
+        <v>9.8516389276217303E-5</v>
       </c>
       <c r="G11" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H11" s="19">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.0038959866045101</v>
+      </c>
+      <c r="E12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2.0489160408349001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9</v>
-      </c>
       <c r="F12" s="18">
-        <v>6.1035773987045596E-3</v>
+        <v>3.2517949490339901E-4</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H12" s="19">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D13" s="15">
-        <v>7.2685815711080196E-2</v>
+        <v>0.88272120078806404</v>
       </c>
       <c r="E13" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F13" s="18">
-        <v>1.9177518350015901E-4</v>
+        <v>9.9810632493095293E-4</v>
       </c>
       <c r="G13" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H13" s="19">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D14" s="15">
-        <v>0.48776634565937299</v>
+        <v>0.87376197424685398</v>
       </c>
       <c r="E14" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F14" s="18">
-        <v>4.1905955989048E-3</v>
+        <v>5.1748069327915302E-5</v>
       </c>
       <c r="G14" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H14" s="19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D15" s="15">
-        <v>9.9883540004775302</v>
+        <v>0.71847623061053001</v>
       </c>
       <c r="E15" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F15" s="18">
-        <v>7.4767771761079294E-2</v>
+        <v>2.7501112651471698E-3</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H15" s="19">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15">
-        <v>100</v>
+        <v>0.70424253260654801</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F16" s="18">
-        <v>1.42740202704085E-3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H16" s="19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D17" s="15">
-        <v>0.621343548445768</v>
+        <v>0.68221001975771101</v>
       </c>
       <c r="E17" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="18">
-        <v>3.65655706210291E-3</v>
+        <v>1.5998718681308101E-4</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H17" s="19">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
-        <v>23</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="15">
-        <v>0.44636137593538899</v>
+        <v>0.621343548445768</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>4.7337240743018398E-3</v>
+        <v>3.65655706210291E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D19" s="15">
-        <v>0.278135939203149</v>
+        <v>0.59249070508015</v>
       </c>
       <c r="E19" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>5.8343689068170801E-3</v>
+        <v>6.2301023160156997E-4</v>
       </c>
       <c r="G19" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H19" s="19">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D20" s="15">
-        <v>0.109317759733929</v>
+        <v>0.58565637575396201</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>6.9640041416194602E-5</v>
+        <v>1.13343481490467E-3</v>
       </c>
       <c r="G20" s="3">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H20" s="19">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2404,372 +2411,372 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D22" s="15">
-        <v>0.58565637575396201</v>
+        <v>0.48776634565937299</v>
       </c>
       <c r="E22" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>1.13343481490467E-3</v>
+        <v>4.1905955989048E-3</v>
       </c>
       <c r="G22" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H22" s="19">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D23" s="15">
-        <v>5.3135988597182403E-2</v>
+        <v>0.44636137593538899</v>
       </c>
       <c r="E23" s="4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>9.63565378823975E-4</v>
+        <v>4.7337240743018398E-3</v>
       </c>
       <c r="G23" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H23" s="19">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D24" s="15">
-        <v>1.0038959866045101</v>
+        <v>0.388472642633238</v>
       </c>
       <c r="E24" s="4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>3.2517949490339901E-4</v>
+        <v>6.62814586340871E-5</v>
       </c>
       <c r="G24" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H24" s="19">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D25" s="15">
-        <v>17.397774194419</v>
+        <v>0.30959679960666497</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>8.0841024708269305E-3</v>
+        <v>6.4176530981812396E-5</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H25" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D26" s="15">
-        <v>0.30959679960666497</v>
+        <v>0.28634087459677898</v>
       </c>
       <c r="E26" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>6.4176530981812396E-5</v>
+        <v>9.50760503084074E-4</v>
       </c>
       <c r="G26" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H26" s="19">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D27" s="15">
-        <v>6.45652581683379E-2</v>
+        <v>0.278135939203149</v>
       </c>
       <c r="E27" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>2.1094825089469399E-4</v>
+        <v>5.8343689068170801E-3</v>
       </c>
       <c r="G27" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H27" s="19">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D28" s="15">
-        <v>0.71847623061053001</v>
+        <v>0.21829619173585499</v>
       </c>
       <c r="E28" s="4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>2.7501112651471698E-3</v>
+        <v>1.22920580877569E-3</v>
       </c>
       <c r="G28" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" s="19">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D29" s="15">
-        <v>1.60108006191594</v>
+        <v>0.109317759733929</v>
       </c>
       <c r="E29" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>9.8516389276217303E-5</v>
+        <v>6.9640041416194602E-5</v>
       </c>
       <c r="G29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="19">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B30" s="4">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D30" s="15">
-        <v>0.21829619173585499</v>
+        <v>9.0183515157279195E-2</v>
       </c>
       <c r="E30" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>1.22920580877569E-3</v>
+        <v>1.5434729575678301E-3</v>
       </c>
       <c r="G30" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="19">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D31" s="15">
-        <v>2.5933459756844801</v>
+        <v>7.2685815711080196E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>1.2951631081323E-3</v>
+        <v>1.9177518350015901E-4</v>
       </c>
       <c r="G31" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H31" s="19">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D32" s="15">
-        <v>0.59249070508015</v>
+        <v>6.45652581683379E-2</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>6.2301023160156997E-4</v>
+        <v>2.1094825089469399E-4</v>
       </c>
       <c r="G32" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H32" s="19">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D33" s="15">
-        <v>0.88272120078806404</v>
+        <v>5.3135988597182403E-2</v>
       </c>
       <c r="E33" s="4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>9.9810632493095293E-4</v>
+        <v>9.63565378823975E-4</v>
       </c>
       <c r="G33" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="19">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="14">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="D34" s="15">
-        <v>66.352206113982206</v>
+        <v>1.22831342698071E-2</v>
       </c>
       <c r="E34" s="4">
+        <v>33</v>
+      </c>
+      <c r="F34" s="18">
+        <v>8.4075454851656201E-4</v>
+      </c>
+      <c r="G34" s="3">
+        <v>21</v>
+      </c>
+      <c r="H34" s="19">
         <v>2</v>
-      </c>
-      <c r="F34" s="18">
-        <v>49.225253080974397</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="19">
-        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="14">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D35" s="15">
-        <v>64.078867655758998</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H35" s="19">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
-    <sortCondition ref="B2:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+    <sortCondition ref="E2:E35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
